--- a/planilhas/outputs/final_com_urls.xlsx
+++ b/planilhas/outputs/final_com_urls.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,32 +570,17 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Url_Imagem1.0_x</t>
+          <t>Url_Imagem1.0</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Url_Imagem2.0_x</t>
+          <t>Url_Imagem2.0</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Url_Imagem3.0_x</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Url_Imagem1.0_y</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Url_Imagem2.0_y</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Url_Imagem3.0_y</t>
+          <t>Url_Imagem3.0</t>
         </is>
       </c>
     </row>
@@ -692,20 +677,17 @@
           <t>38</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>https://res.cloudinary.com/dbpq32fiq/image/upload/f_auto,q_auto/v1762959188/imagens_otimizadas_marketplace/4097_1_FURAD_B_D_IMPACTO_3_8_220V_TM500_560W.jpg</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>https://res.cloudinary.com/dbpq32fiq/image/upload/f_auto,q_auto/v1762960137/imagens_otimizadas_marketplace/4097_2_FURAD_B_D_IMPACTO_3_8_220V_TM500_560W.jpg</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>https://res.cloudinary.com/dbpq32fiq/image/upload/f_auto,q_auto/v1762952106/imagens_otimizadas_marketplace/4097_3_FURAD_B_D_IMPACTO_3_8_220V_TM500_560W.jpg</t>
         </is>

--- a/planilhas/outputs/final_com_urls.xlsx
+++ b/planilhas/outputs/final_com_urls.xlsx
@@ -586,22 +586,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>373710</v>
+        <v>279331</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FURAD BD IMPACTO 38 220V TM500 560W</t>
+          <t>TUBO CORR PLASTIK ESGOTO 100MM BARRA 6MT</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>121.745</v>
+        <v>36.99</v>
       </c>
       <c r="D2" t="n">
-        <v>7454990453019</v>
+        <v>7426841459334</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FURAD B&amp;D IMPACTO 3/8 220V TM500 560W</t>
+          <t>TUBO CORR PLASTIK ESGOTO 100MM BARRA 6MT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -610,14 +610,14 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>43858.13077546296</v>
+        <v>43854.20379629629</v>
       </c>
       <c r="H2" t="n">
-        <v>84672100</v>
+        <v>39172300</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>PLASTIK</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -629,20 +629,20 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>FERRAMENTAS ELÉTRICAS</t>
+          <t>BROCAS</t>
         </is>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>172.4</v>
+        <v>55.86</v>
       </c>
       <c r="R2" t="n">
-        <v>38.48</v>
+        <v>15.17</v>
       </c>
       <c r="S2" t="n">
-        <v>12.17</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -651,11 +651,11 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>FURAD BD IMPACTO 38 220V TM500 560W</t>
+          <t>TUBO CORR PLASTIK ESGOTO 100MM BARRA 6MT</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2791</v>
+        <v>2829</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -664,32 +664,32 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>FURAD B&amp;D IMPACTO 3/8 220V TM500 560W</t>
+          <t>TUBO CORR PLASTIK ESGOTO 100MM BARRA 6MT</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>FURAD BD IMPACTO  220V TM500 560W</t>
+          <t>TUBO CORR PLASTIK ESGOTO 50MM BARRA 6MT</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>100MM</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dbpq32fiq/image/upload/f_auto,q_auto/v1762959188/imagens_otimizadas_marketplace/4097_1_FURAD_B_D_IMPACTO_3_8_220V_TM500_560W.jpg</t>
+          <t>https://res.cloudinary.com/dbpq32fiq/image/upload/f_auto,q_auto/v1762960655/imagens_otimizadas_marketplace/3969_1_TUBO_PLASTILIT_ESGOTO__40MM_BARRA_6MT.jpg</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dbpq32fiq/image/upload/f_auto,q_auto/v1762960137/imagens_otimizadas_marketplace/4097_2_FURAD_B_D_IMPACTO_3_8_220V_TM500_560W.jpg</t>
+          <t>https://res.cloudinary.com/dbpq32fiq/image/upload/f_auto,q_auto/v1762961378/imagens_otimizadas_marketplace/3381_2_TUBO_FORTLEV_ESGOTO__50MM_BARRA_6MT.jpg</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>https://res.cloudinary.com/dbpq32fiq/image/upload/f_auto,q_auto/v1762952106/imagens_otimizadas_marketplace/4097_3_FURAD_B_D_IMPACTO_3_8_220V_TM500_560W.jpg</t>
+          <t>https://res.cloudinary.com/dbpq32fiq/image/upload/f_auto,q_auto/v1762961044/imagens_otimizadas_marketplace/3971_3_TUBO_PLASTILIT_ESGOTO__50MM_BARRA_6MT.jpg</t>
         </is>
       </c>
     </row>
